--- a/Tool-HazardMap/Data/input_variables.xlsx
+++ b/Tool-HazardMap/Data/input_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\projects\risk_assessment-GIRI_landslide_susceptibility\hazard_computations\Tool\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\projects\risk_assessment-GIRI_landslide_susceptibility\hazard_computations\Tool-HazardMap\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC113F0-5D2C-434C-A167-218382A9C902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32F20A3-7516-49DF-97C4-248B60BAB8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32340" yWindow="1950" windowWidth="21600" windowHeight="12585" xr2:uid="{5A448D7C-0F04-426A-AFA0-10C3A1C82E53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{5A448D7C-0F04-426A-AFA0-10C3A1C82E53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>mode</t>
   </si>
   <si>
-    <t>constant</t>
+    <t>input rain map name</t>
   </si>
   <si>
-    <t>input rain</t>
+    <t>map</t>
+  </si>
+  <si>
+    <t>input constant rain</t>
+  </si>
+  <si>
+    <t>20230807_rr_seNorge2018</t>
   </si>
 </sst>
 </file>
@@ -425,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72BE7F8-A93F-4A4F-B411-C08EAFE9C98B}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -441,15 +447,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
